--- a/monitoring/PlutoTV_4월편성_CC_220411.xlsx
+++ b/monitoring/PlutoTV_4월편성_CC_220411.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filelive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filvelive_3.0\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDBA885-9FEB-4503-9A7E-390942A85F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB09222-867A-4952-A824-8EFC63AAA501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5663,7 +5663,7 @@
   <dimension ref="A1:T1084"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="A1:T1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
